--- a/Assets/Scenes/SceneManagement.xlsx
+++ b/Assets/Scenes/SceneManagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\171-Game\Assets\Scenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC4C80D-CF42-4013-8C3B-42DC0E6226A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8313666-9647-420C-A276-68B1990273B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="6600" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>level03</t>
-  </si>
-  <si>
     <t>level04</t>
   </si>
   <si>
@@ -85,6 +82,15 @@
   </si>
   <si>
     <t>load from Main Menu</t>
+  </si>
+  <si>
+    <t>level01</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>load from Main Menu "Start"</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,88 +429,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
